--- a/pyla1/tratamento_pyla1.xlsx
+++ b/pyla1/tratamento_pyla1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDAC51B-4762-4BE2-AF18-93B2C2E1B47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E205D-1A04-48E8-8F1A-3E873F54672A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,8 +14,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$2:$B$113</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">filtrado!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">filtrado!$C$2:$C$100</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">filtrado!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">filtrado!$F$2:$F$100</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">filtrado!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">filtrado!$C$2:$C$100</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -61,12 +63,24 @@
   <si>
     <t>Limiar Brilho do ligante</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>coeficiante de variaçao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +92,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,15 +121,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1985,6 +2010,1939 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Área de Cobertura</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>filtrado!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobrimento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>filtrado!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>filtrado!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>87.928684987508504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.487427726233605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.9331824836949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.193750543998604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.590361445783103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.990296309131793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.635105379050003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.098690835850903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.328250741211299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.887195121951201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.8993135011441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.248669569424202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.395256916995997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.835122421903201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.860496211558399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.389610389610297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.587115464201901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.6838735900823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.782374100719402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.537938739409697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.484611371935301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.037157454714304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.349844845420002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.488605639242905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.781034310293002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.666307713016501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.703778135048204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.8635817963549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.455251030802799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.715475668566398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.687573500588002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.848309835230097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.036845135290697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.167806723912001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.640591047370698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.0619571511291</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.353608655495407</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.4507696511522</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.632925044295504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.853098699311403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.613165232149299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57.712849513038002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.708158571235199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.094750889679698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.549578059071699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.808945334069499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77.973225404732204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.587912087912002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.656976744185997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.463098134630897</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.526912181303103</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.314085739282497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.615881809787602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.182903941306897</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.296378418329603</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.233347398878699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.118698605648902</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.938499822253803</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69.867199435891393</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.690037744481302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.132231404958603</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.115973347739903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.940526762956601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37.388282025819201</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.361258801551898</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.366869232500498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.874720357941797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.262135922330003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>64.675737762855604</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62.251923855812002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.5469125902165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.301085242556297</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.864992368530501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.606667663327798</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>65.157480314960594</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.9435316857655</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.428386260531397</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>68.5648727576136</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.094775212636698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.924616695059601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.079145573527597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.866329479768694</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.084236995127998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49.033904484141402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.239986536519602</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65.726043503821202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61.932386477295402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.548696036540399</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.758725341426398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.854565336249301</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82.773497688751903</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.539593552908201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>64.171656686626704</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41.453073809982598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37.623274161735701</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.599333202588703</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46.074183662686202</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>75.113620713400294</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.105016938215797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54AC-42D0-BD02-2CC71EE8A9ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>filtrado!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>filtrado!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>87.928684987508504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.487427726233605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.9331824836949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.193750543998604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.590361445783103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.990296309131793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.635105379050003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.098690835850903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.328250741211299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.887195121951201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.8993135011441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.248669569424202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.395256916995997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.835122421903201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.860496211558399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.389610389610297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.587115464201901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.6838735900823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.782374100719402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.537938739409697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.484611371935301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.037157454714304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.349844845420002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.488605639242905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.781034310293002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.666307713016501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.703778135048204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.8635817963549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.455251030802799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.715475668566398</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.687573500588002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.848309835230097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.036845135290697</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.167806723912001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.640591047370698</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.0619571511291</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.353608655495407</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.4507696511522</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.632925044295504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.853098699311403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.613165232149299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57.712849513038002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.708158571235199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.094750889679698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.549578059071699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.808945334069499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77.973225404732204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.587912087912002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.656976744185997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.463098134630897</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.526912181303103</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.314085739282497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.615881809787602</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.182903941306897</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.296378418329603</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.233347398878699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.118698605648902</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.938499822253803</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69.867199435891393</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.690037744481302</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.132231404958603</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.115973347739903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.940526762956601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37.388282025819201</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.361258801551898</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.366869232500498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.874720357941797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.262135922330003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>64.675737762855604</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62.251923855812002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.5469125902165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.301085242556297</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.864992368530501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.606667663327798</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>65.157480314960594</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.9435316857655</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.428386260531397</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>68.5648727576136</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.094775212636698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.924616695059601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.079145573527597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.866329479768694</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.084236995127998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49.033904484141402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.239986536519602</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65.726043503821202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61.932386477295402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.548696036540399</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.758725341426398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>53.854565336249301</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82.773497688751903</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.539593552908201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>64.171656686626704</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41.453073809982598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37.623274161735701</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.599333202588703</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46.074183662686202</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>75.113620713400294</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.105016938215797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEBF-47DC-B3BD-3E605134E007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>filtrado!$G$9:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>filtrado!$H$9:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52.847522276802856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.847522276802856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEBF-47DC-B3BD-3E605134E007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Nº da partícula</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor da área de cobrimento (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2056,7 +4014,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2094,8 +4052,74 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Pixels Agregados</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Área de Cobertura</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Área de Cobertura</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BDF0065E-0469-4BFC-B593-BB490CDEB64D}">
+          <cx:tx>
+            <cx:txData>
               <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Pixels Agregados</cx:v>
+              <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -2277,6 +4301,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -3824,6 +5968,1553 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4576,6 +8267,160 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8547B3C3-8C48-47A9-AEFC-CC9D6443E7DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6088380" y="3116580"/>
+              <a:ext cx="3459480" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C5F744-DA5C-41EE-929B-016F95EB2703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>81600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A964BE96-45F7-4768-B262-8762B5A00FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6821,7 +10666,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6989,6 +10834,13 @@
       <c r="F6">
         <v>47.590361445783103</v>
       </c>
+      <c r="G6">
+        <f>MIN(F2:F100)</f>
+        <v>19.094750889679698</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -7010,6 +10862,13 @@
       <c r="F7">
         <v>85.990296309131793</v>
       </c>
+      <c r="G7">
+        <f>MAX(F2:F100)</f>
+        <v>87.928684987508504</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -7031,6 +10890,13 @@
       <c r="F8">
         <v>39.635105379050003</v>
       </c>
+      <c r="G8" s="3">
+        <f>G3/G2</f>
+        <v>0.27116706072203467</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -7052,6 +10918,13 @@
       <c r="F9">
         <v>64.098690835850903</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G2</f>
+        <v>52.847522276802856</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7072,6 +10945,13 @@
       </c>
       <c r="F10">
         <v>50.328250741211299</v>
+      </c>
+      <c r="G10">
+        <v>112</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G2</f>
+        <v>52.847522276802856</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
